--- a/genebase/Protein_Function_Taxa.xlsx
+++ b/genebase/Protein_Function_Taxa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="540">
   <si>
     <r>
       <rPr>
@@ -3668,6 +3668,15 @@
     </r>
   </si>
   <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>taxa</t>
+  </si>
+  <si>
     <t>2-oxoisovalerate dehydrogenase alpha</t>
   </si>
   <si>
@@ -3675,21 +3684,6 @@
   </si>
   <si>
     <t>Listeria ivanovii (strain ATCC BAA-678 / PAM 55), Listeria monocytogenes serotype 4a (strain M7), Listeria welshimeri serovar 6b (strain ATCC 35897 / DSM 20650 / CCUG 15529 / CIP 8149 / NCTC 11857 / SLCC 5334 / V8)</t>
-  </si>
-  <si>
-    <t>3-alpha-hydroxysteroid dehydrogenase</t>
-  </si>
-  <si>
-    <t>Steroids metabolism</t>
-  </si>
-  <si>
-    <t>3-alpha-hydroxysteroid_dehydrogenase</t>
-  </si>
-  <si>
-    <t>3-beta-hydroxysteroid dehydrogenase</t>
-  </si>
-  <si>
-    <t>3-beta-hydroxysteroid_dehydrogenase</t>
   </si>
   <si>
     <t>4-aminobutyrate aminotransferase gabT</t>
@@ -3732,9 +3726,6 @@
     <t>Clostridium aminobutyricum, Escherichia coli, Klebsiella oxytoca</t>
   </si>
   <si>
-    <t>7-alpha-dehydroxylase</t>
-  </si>
-  <si>
     <t>Acetylserotonin O- methyltransferase</t>
   </si>
   <si>
@@ -3744,12 +3735,6 @@
     <t>Actinomadura citrea, Actinomadura luteofluorescens, Actinomadura madurae, Actinomadura mexicana, Bacteroides sp. SM1_62, Bacteroides sp. SM23_62, Clostridium sp, Desulfovibrio sp</t>
   </si>
   <si>
-    <t>agmatinase</t>
-  </si>
-  <si>
-    <t>Arginine and proline metabolism</t>
-  </si>
-  <si>
     <t>Alanine racemase alr</t>
   </si>
   <si>
@@ -3798,36 +3783,6 @@
     <t>Agathobacter rectalis (strain ATCC 33656 / DSM 3377 / JCM 17463 / KCTC 5835 / VPI 0990), Bacteroides fragilis (strain 638R), Bacteroides fragilis (strain ATCC 25285 / DSM 2151 / CCUG 4856 / JCM 11019 / LMG 10263 / NCTC 9343 / Onslow / VPI 2553 / EN-2), Bacteroides fragilis (strain YCH46), Bacteroides helcogenes (strain ATCC 35417 / DSM 20613 / JCM 6297 / CCUG 15421 / P 36-108), Bacteroides ovatus (strain ATCC 8483 / DSM 1896 / JCM 5824 / BCRC 10623 / CCUG 4943 / NCTC 11153), Bacteroides thetaiotaomicron (strain ATCC 29148 / DSM 2079 / JCM 5827 / CCUG 10774 / NCTC 10582 / VPI-5482 / E50), Bifidobacterium adolescentis (strain ATCC 15703 / DSM 20083 / NCTC 11814 / E194a), Bifidobacterium longum (strain NCC 2705), Bifidobacterium longum subsp. infantis (strain ATCC 15697 / DSM 20088 / JCM 1222 / NCTC 11817 / S12), Citrobacter freundii, Citrobacter intermedius, Citrobacter koseri (strain ATCC BAA-895 / CDC 4225-83 / SGSC4696), Clostridium acetobutylicum (strain ATCC 824 / DSM 792 / JCM 1419 / IAM 19013 / LMG 5710 / NBRC 13948 / NRRL B-527 / VKM B-1787 / 2291 / W), Clostridium beijerinckii (strain ATCC 51743 / NCIMB 8052), Clostridium botulinum (strain 657 / Type Ba4), Clostridium botulinum (strain ATCC 19397 / Type A), Clostridium botulinum (strain Alaska E43 / Type E3), Clostridium botulinum (strain Eklund 17B / Type B), Clostridium botulinum (strain Hall / ATCC 3502 / NCTC 13319 / Type A), Clostridium botulinum (strain Kyoto / Type A2), Clostridium botulinum (strain Langeland / NCTC 10281 / Type F), Clostridium botulinum (strain Loch Maree / Type A3), Clostridium botulinum (strain Okra / Type B1), Clostridium kluyveri (strain ATCC 8527 / DSM 555 / NBRC 12016 / NCIMB 10680 / K1), Clostridium kluyveri (strain NBRC 12016), Clostridium novyi (strain NT), Clostridium perfringens (strain 13 / Type A), Clostridium perfringens (strain ATCC 13124 / DSM 756 / JCM 1290 / NCIMB 6125 / NCTC 8237 / Type A), Clostridium perfringens (strain SM101 / Type A), Clostridium sporogenes (strain ATCC 15579), Clostridium tetani (strain Massachusetts / E88), Desulfovibrio desulfuricans (strain ATCC 27774 / DSM 6949 / MB), Enterobacter sp. (strain 638), Enterococcus faecalis (strain ATCC 700802 / V583), Enterococcus faecalis (strain EnGen0310 / MMH594), Enterococcus faecium, Escherichia coli, Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O157:H7 (strain EC4115 / EHEC), Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O55:H7 (strain CB9615 / EPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia coli O9:H4 (strain HS), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Helicobacter acinonychis (strain Sheeba), Helicobacter hepaticus (strain ATCC 51449 / 3B1), Helicobacter pylori, Helicobacter pylori (strain ATCC 700392 / 26695), Helicobacter pylori (strain G27), Helicobacter pylori (strain HPAG1), Helicobacter pylori (strain J99 / ATCC 700824), Helicobacter pylori (strain P12), Helicobacter pylori (strain Shi470), Klebsiella aerogenes, Klebsiella pneumoniae, Klebsiella pneumoniae (strain 342), Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578), Lactobacillus acidophilus (strain ATCC 700396 / NCK56 / N2 / NCFM), Lactobacillus delbrueckii subsp. bulgaricus, Lactobacillus delbrueckii subsp. bulgaricus (strain ATCC 11842 / DSM 20081 / BCRC 10696 / JCM 1002 / NBRC 13953 / NCIMB 11778 / NCTC 12712 / WDCM 00102 / Lb 14), Lactobacillus gasseri (strain ATCC 33323 / DSM 20243 / BCRC 14619 / CIP 102991 / JCM 1131 / KCTC 3163 / NCIMB 11718 / NCTC 13722 / AM63), Lactobacillus helveticus (strain DPC 4571), Lactobacillus johnsonii (strain CNCM I-12250 / La1 / NCC 533), Lactobacillus sp. (strain 30a), Leuconostoc citreum (strain KM20), Leuconostoc mesenteroides subsp. mesenteroides (strain ATCC 8293 / DSM 20343 / BCRC 11652 / CCM 1803 / JCM 6124 / NCDO 523 / NBRC 100496 / NCIMB 8023 / NCTC 12954 / NRRL B-1118 / 37Y), Listeria innocua serovar 6a (strain ATCC BAA-680 / CLIP 11262), Listeria monocytogenes serotype 1/2a (strain 10403S), Listeria monocytogenes serotype 4a (strain HCC23), Listeria monocytogenes serotype 4b (strain CLIP80459), Listeria monocytogenes serotype 4b (strain F2365), Listeria monocytogenes serovar 1/2a (strain ATCC BAA-679 / EGD-e), Listeria welshimeri serovar 6b (strain ATCC 35897 / DSM 20650 / CCUG 15529 / CIP 8149 / NCTC 11857 / SLCC 5334 / V8), Parabacteroides distasonis (strain ATCC 8503 / DSM 20701 / CIP 104284 / JCM 5825 / NCTC 11152), Pediococcus pentosaceus (strain ATCC 25745 / CCUG 21536 / LMG 10740 / 183-1w), Porphyromonas gingivalis (strain ATCC 33277 / DSM 20709 / CIP 103683 / JCM 12257 / NCTC 11834 / 2561), Porphyromonas gingivalis (strain ATCC BAA-308 / W83), Proteus inconstans, Proteus mirabilis (strain HI4320), Proteus vulgaris, Ruminococcus flavefaciens, Streptococcus agalactiae serotype III (strain NEM316), Streptococcus agalactiae serotype Ia (strain ATCC 27591 / A909 / CDC SS700), Streptococcus agalactiae serotype V (strain ATCC BAA-611 / 2603 V/R), Streptococcus equi subsp. equi (strain 4047), Streptococcus equi subsp. zooepidemicus (strain H70), Streptococcus equi subsp. zooepidemicus (strain MGCS10565), Streptococcus gordonii (strain Challis / ATCC 35105 / BCRC 15272 / CH1 / DL1 / V288), Streptococcus mutans serotype c (strain ATCC 700610 / UA159), Streptococcus pneumoniae (strain 70585), Streptococcus pneumoniae (strain ATCC 700669 / Spain 23F-1), Streptococcus pneumoniae (strain ATCC BAA-255 / R6), Streptococcus pneumoniae (strain CGSP14), Streptococcus pneumoniae (strain Hungary19A-6), Streptococcus pneumoniae (strain JJA), Streptococcus pneumoniae (strain P1031), Streptococcus pneumoniae (strain Taiwan19F-14), Streptococcus pneumoniae serotype 19F (strain G54), Streptococcus pneumoniae serotype 2 (strain D39 / NCTC 7466), Streptococcus pneumoniae serotype 4 (strain ATCC BAA-334 / TIGR4), Streptococcus pyogenes serotype M1, Streptococcus pyogenes serotype M12 (strain MGAS2096), Streptococcus pyogenes serotype M12 (strain MGAS9429), Streptococcus pyogenes serotype M18 (strain MGAS8232), Streptococcus pyogenes serotype M2 (strain MGAS10270), Streptococcus pyogenes serotype M28 (strain MGAS6180), Streptococcus pyogenes serotype M3 (strain ATCC BAA-595 / MGAS315), Streptococcus pyogenes serotype M3 (strain SSI-1), Streptococcus pyogenes serotype M4 (strain MGAS10750), Streptococcus pyogenes serotype M49 (strain NZ131), Streptococcus pyogenes serotype M5 (strain Manfredo), Streptococcus pyogenes serotype M6 (strain ATCC BAA-946 / MGAS10394), Streptococcus sanguinis (strain SK36), Streptococcus suis (strain 05ZYH33), Streptococcus suis (strain 98HAH33), Streptococcus thermophilus (strain ATCC BAA-250 / LMG 18311), Streptococcus thermophilus (strain ATCC BAA-491 / LMD-9), Streptococcus thermophilus (strain CNRZ 1066), Streptococcus uberis (strain ATCC BAA-854 / 0140J)</t>
   </si>
   <si>
-    <t>beta-glucosidase</t>
-  </si>
-  <si>
-    <t>Starch and sucrose metabolism</t>
-  </si>
-  <si>
-    <t>beta-glucuronidase UidA</t>
-  </si>
-  <si>
-    <t>beta-glucuronidase_UidA</t>
-  </si>
-  <si>
-    <t>bile salt hydrolase BSH</t>
-  </si>
-  <si>
-    <t>Bile acid metabolism</t>
-  </si>
-  <si>
-    <t>bile_salt_hydrolase_BSH</t>
-  </si>
-  <si>
-    <t>biotin synthase</t>
-  </si>
-  <si>
-    <t>Biotin metabolism</t>
-  </si>
-  <si>
-    <t>biotin_synthase</t>
-  </si>
-  <si>
     <t>Butyrate kinase</t>
   </si>
   <si>
@@ -3844,12 +3799,6 @@
   </si>
   <si>
     <t>Bacteroides fragilis (strain ATCC 25285 / DSM 2151 / CCUG 4856 / JCM 11019 / LMG 10263 / NCTC 9343 / Onslow / VPI 2553 / EN-2), Bacteroides fragilis (strain YCH46), Bacteroides thetaiotaomicron (strain ATCC 29148 / DSM 2079 / JCM 5827 / CCUG 10774 / NCTC 10582 / VPI-5482 / E50), Citrobacter koseri (strain ATCC BAA-895 / CDC 4225-83 / SGSC4696), Clostridium acetobutylicum (strain ATCC 824 / DSM 792 / JCM 1419 / IAM 19013 / LMG 5710 / NBRC 13948 / NRRL B-527 / VKM B-1787 / 2291 / W), Clostridium aminobutyricum, Clostridium sporogenes (strain ATCC 15579), Escherichia coli, Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O157:H7 (strain EC4115 / EHEC), Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia coli O9:H4 (strain HS), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Klebsiella oxytoca, Megasphaera elsdenii, Parabacteroides distasonis (strain ATCC 8503 / DSM 20701 / CIP 104284 / JCM 5825 / NCTC 11152), Porphyromonas gingivalis (strain ATCC BAA-308 / W83), Proteus mirabilis, Proteus mirabilis (strain HI4320), Proteus sp. (strain LE138)</t>
-  </si>
-  <si>
-    <t>butyryl-CoA:acetate CoA-transferase</t>
-  </si>
-  <si>
-    <t>butyryl-CoA_acetate_CoA-transferase</t>
   </si>
   <si>
     <t>Carboxylesterase</t>
@@ -4042,15 +3991,6 @@
     <t>Clostridium perfringens (strain 13 / Type A), Clostridium perfringens (strain ATCC 13124 / DSM 756 / JCM 1290 / NCIMB 6125 / NCTC 8237 / Type A), Clostridium perfringens (strain SM101 / Type A), Enterococcus faecalis (strain ATCC 700802 / V583), Escherichia coli O1:K1 / APEC, Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O81 (strain ED1a), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Listeria innocua serovar 6a (strain ATCC BAA-680 / CLIP 11262), Listeria monocytogenes serotype 4a (strain HCC23), Listeria monocytogenes serotype 4b (strain CLIP80459), Listeria monocytogenes serotype 4b (strain F2365), Listeria monocytogenes serovar 1/2a (strain ATCC BAA-679 / EGD-e), Listeria welshimeri serovar 6b (strain ATCC 35897 / DSM 20650 / CCUG 15529 / CIP 8149 / NCTC 11857 / SLCC 5334 / V8), Pediococcus pentosaceus (strain ATCC 25745 / CCUG 21536 / LMG 10740 / 183-1w), Porphyromonas gingivalis (strain ATCC BAA-308 / W83), Streptococcus agalactiae serotype III (strain NEM316), Streptococcus agalactiae serotype Ia (strain ATCC 27591 / A909 / CDC SS700), Streptococcus agalactiae serotype V (strain ATCC BAA-611 / 2603 V/R), Streptococcus equi subsp. equi (strain 4047), Streptococcus equi subsp. zooepidemicus (strain H70), Streptococcus equi subsp. zooepidemicus (strain MGCS10565), Streptococcus gordonii (strain Challis / ATCC 35105 / BCRC 15272 / CH1 / DL1 / V288), Streptococcus mutans serotype c (strain ATCC 700610 / UA159), Streptococcus pneumoniae (strain 70585), Streptococcus pneumoniae (strain ATCC 700669 / Spain 23F-1), Streptococcus pneumoniae (strain ATCC BAA-255 / R6), Streptococcus pneumoniae (strain CGSP14), Streptococcus pneumoniae (strain Hungary19A-6), Streptococcus pneumoniae (strain JJA), Streptococcus pneumoniae (strain P1031), Streptococcus pneumoniae (strain Taiwan19F-14), Streptococcus pneumoniae serotype 19F (strain G54), Streptococcus pneumoniae serotype 2 (strain D39 / NCTC 7466), Streptococcus pneumoniae serotype 4 (strain ATCC BAA-334 / TIGR4), Streptococcus pyogenes, Streptococcus pyogenes serotype M1, Streptococcus pyogenes serotype M12 (strain MGAS2096), Streptococcus pyogenes serotype M12 (strain MGAS9429), Streptococcus pyogenes serotype M18 (strain MGAS8232), Streptococcus pyogenes serotype M2 (strain MGAS10270), Streptococcus pyogenes serotype M28 (strain MGAS6180), Streptococcus pyogenes serotype M3 (strain ATCC BAA-595 / MGAS315), Streptococcus pyogenes serotype M3 (strain SSI-1), Streptococcus pyogenes serotype M4 (strain MGAS10750), Streptococcus pyogenes serotype M49 (strain NZ131), Streptococcus pyogenes serotype M5 (strain Manfredo), Streptococcus pyogenes serotype M6 (strain ATCC BAA-946 / MGAS10394), Streptococcus sanguinis (strain SK36), Streptococcus uberis (strain ATCC BAA-854 / 0140J)</t>
   </si>
   <si>
-    <t>glycine betaine reductase</t>
-  </si>
-  <si>
-    <t>Glycine, serine and threonine metabolism</t>
-  </si>
-  <si>
-    <t>glycine_betaine_reductase</t>
-  </si>
-  <si>
     <t>Histidine ammonia-lyase</t>
   </si>
   <si>
@@ -4067,21 +4007,6 @@
   </si>
   <si>
     <t>Clostridium perfringens (strain 13 / Type A), Clostridium perfringens (strain ATCC 13124 / DSM 756 / JCM 1290 / NCIMB 6125 / NCTC 8237 / Type A), Klebsiella aerogenes, Lactobacillus sp. (strain 30a)</t>
-  </si>
-  <si>
-    <t>indoleacetate decarboxylase</t>
-  </si>
-  <si>
-    <t>Tryptophan metabolism</t>
-  </si>
-  <si>
-    <t>indoleacetate_decarboxylase</t>
-  </si>
-  <si>
-    <t>indolepyruvate decarboxylase</t>
-  </si>
-  <si>
-    <t>indolepyruvate_decarboxylase</t>
   </si>
   <si>
     <t>Lactocepin</t>
@@ -4136,12 +4061,6 @@
     <t>Escherichia coli (strain K12), Veillonella parvula</t>
   </si>
   <si>
-    <t>methylmalonyl-CoA mutase</t>
-  </si>
-  <si>
-    <t>methylmalonyl-CoA_mutase</t>
-  </si>
-  <si>
     <t>Monoamine oxidase</t>
   </si>
   <si>
@@ -4178,12 +4097,6 @@
     <t>Bacteroides thetaiotaomicron (strain ATCC 29148 / DSM 2079 / JCM 5827 / CCUG 10774 / NCTC 10582 / VPI-5482 / E50)</t>
   </si>
   <si>
-    <t>N-acetylglucosaminidase</t>
-  </si>
-  <si>
-    <t>Amino sugar and nucleotide sugar metabolism</t>
-  </si>
-  <si>
     <t>Nitric oxide dioxygenase</t>
   </si>
   <si>
@@ -4205,12 +4118,6 @@
     <t>Citrobacter braakii, Citrobacter koseri (strain ATCC BAA-895 / CDC 4225-83 / SGSC4696), Enterobacter sp. (strain 638), Escherichia coli, Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O1:K1 / APEC, Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O9:H4 (strain HS), Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578)</t>
   </si>
   <si>
-    <t>nitroreductases</t>
-  </si>
-  <si>
-    <t>Xenobiotics biodegradation</t>
-  </si>
-  <si>
     <t>Ornithine carbamoyltransferase</t>
   </si>
   <si>
@@ -4218,27 +4125,6 @@
   </si>
   <si>
     <t>Bacteroides fragilis (strain 638R), Bacteroides fragilis (strain ATCC 25285 / DSM 2151 / CCUG 4856 / JCM 11019 / LMG 10263 / NCTC 9343 / Onslow / VPI 2553 / EN-2), Bacteroides fragilis (strain YCH46), Bacteroides thetaiotaomicron (strain ATCC 29148 / DSM 2079 / JCM 5827 / CCUG 10774 / NCTC 10582 / VPI-5482 / E50), Bifidobacterium adolescentis (strain ATCC 15703 / DSM 20083 / NCTC 11814 / E194a), Bifidobacterium longum (strain DJO10A), Bifidobacterium longum (strain NCC 2705), Bifidobacterium longum subsp. infantis (strain ATCC 15697 / DSM 20088 / JCM 1222 / NCTC 11817 / S12), Citrobacter koseri (strain ATCC BAA-895 / CDC 4225-83 / SGSC4696), Clostridium acetobutylicum (strain ATCC 824 / DSM 792 / JCM 1419 / IAM 19013 / LMG 5710 / NBRC 13948 / NRRL B-527 / VKM B-1787 / 2291 / W), Clostridium beijerinckii (strain ATCC 51743 / NCIMB 8052), Clostridium botulinum (strain 657 / Type Ba4), Clostridium botulinum (strain ATCC 19397 / Type A), Clostridium botulinum (strain Alaska E43 / Type E3), Clostridium botulinum (strain Eklund 17B / Type B), Clostridium botulinum (strain Hall / ATCC 3502 / NCTC 13319 / Type A), Clostridium botulinum (strain Kyoto / Type A2), Clostridium botulinum (strain Langeland / NCTC 10281 / Type F), Clostridium botulinum (strain Loch Maree / Type A3), Clostridium botulinum (strain Okra / Type B1), Clostridium kluyveri (strain ATCC 8527 / DSM 555 / NBRC 12016 / NCIMB 10680 / K1), Clostridium kluyveri (strain NBRC 12016), Clostridium novyi (strain NT), Clostridium perfringens (strain 13 / Type A), Clostridium perfringens (strain ATCC 13124 / DSM 756 / JCM 1290 / NCIMB 6125 / NCTC 8237 / Type A), Clostridium perfringens (strain SM101 / Type A), Desulfovibrio desulfuricans (strain ATCC 27774 / DSM 6949 / MB), Enterobacter sp. (strain 638), Enterococcus faecalis (strain ATCC 700802 / V583), Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O157:H7 (strain EC4115 / EHEC), Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia coli O9:H4 (strain HS), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Helicobacter acinonychis (strain Sheeba), Helicobacter hepaticus (strain ATCC 51449 / 3B1), Helicobacter pylori (strain ATCC 700392 / 26695), Helicobacter pylori (strain G27), Helicobacter pylori (strain HPAG1), Helicobacter pylori (strain J99 / ATCC 700824), Helicobacter pylori (strain P12), Helicobacter pylori (strain Shi470), Klebsiella pneumoniae (strain 342), Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578), Lactobacillus acidophilus (strain ATCC 700396 / NCK56 / N2 / NCFM), Lactobacillus delbrueckii subsp. bulgaricus (strain ATCC 11842 / DSM 20081 / BCRC 10696 / JCM 1002 / NBRC 13953 / NCIMB 11778 / NCTC 12712 / WDCM 00102 / Lb 14), Lactobacillus delbrueckii subsp. bulgaricus (strain ATCC BAA-365 / Lb-18), Lactobacillus gasseri (strain ATCC 33323 / DSM 20243 / BCRC 14619 / CIP 102991 / JCM 1131 / KCTC 3163 / NCIMB 11718 / NCTC 13722 / AM63), Lactobacillus helveticus (strain DPC 4571), Lactobacillus johnsonii (strain CNCM I-12250 / La1 / NCC 533), Lactobacillus leichmannii, Leuconostoc citreum (strain KM20), Leuconostoc mesenteroides subsp. mesenteroides (strain ATCC 8293 / DSM 20343 / BCRC 11652 / CCM 1803 / JCM 6124 / NCDO 523 / NBRC 100496 / NCIMB 8023 / NCTC 12954 / NRRL B-1118 / 37Y), Listeria innocua serovar 6a (strain ATCC BAA-680 / CLIP 11262), Listeria monocytogenes serotype 4a (strain HCC23), Listeria monocytogenes serotype 4b (strain CLIP80459), Listeria monocytogenes serotype 4b (strain F2365), Listeria monocytogenes serovar 1/2a (strain ATCC BAA-679 / EGD-e), Listeria welshimeri serovar 6b (strain ATCC 35897 / DSM 20650 / CCUG 15529 / CIP 8149 / NCTC 11857 / SLCC 5334 / V8), Parabacteroides distasonis (strain ATCC 8503 / DSM 20701 / CIP 104284 / JCM 5825 / NCTC 11152), Pediococcus pentosaceus (strain ATCC 25745 / CCUG 21536 / LMG 10740 / 183-1w), Porphyromonas gingivalis (strain ATCC BAA-308 / W83), Proteus mirabilis (strain HI4320), Streptococcus agalactiae, Streptococcus agalactiae serotype III (strain NEM316), Streptococcus agalactiae serotype Ia (strain ATCC 27591 / A909 / CDC SS700), Streptococcus agalactiae serotype V (strain ATCC BAA-611 / 2603 V/R), Streptococcus equi subsp. equi (strain 4047), Streptococcus equi subsp. zooepidemicus (strain H70), Streptococcus equi subsp. zooepidemicus (strain MGCS10565), Streptococcus gordonii (strain Challis / ATCC 35105 / BCRC 15272 / CH1 / DL1 / V288), Streptococcus mutans serotype c (strain ATCC 700610 / UA159), Streptococcus pneumoniae (strain 70585), Streptococcus pneumoniae (strain ATCC 700669 / Spain 23F-1), Streptococcus pneumoniae (strain ATCC BAA-255 / R6), Streptococcus pneumoniae (strain CGSP14), Streptococcus pneumoniae (strain Hungary19A-6), Streptococcus pneumoniae (strain JJA), Streptococcus pneumoniae (strain P1031), Streptococcus pneumoniae (strain Taiwan19F-14), Streptococcus pneumoniae serotype 19F (strain G54), Streptococcus pneumoniae serotype 2 (strain D39 / NCTC 7466), Streptococcus pneumoniae serotype 4 (strain ATCC BAA-334 / TIGR4), Streptococcus pyogenes, Streptococcus pyogenes serotype M1, Streptococcus pyogenes serotype M12 (strain MGAS2096), Streptococcus pyogenes serotype M12 (strain MGAS9429), Streptococcus pyogenes serotype M18 (strain MGAS8232), Streptococcus pyogenes serotype M2 (strain MGAS10270), Streptococcus pyogenes serotype M28 (strain MGAS6180), Streptococcus pyogenes serotype M3 (strain ATCC BAA-595 / MGAS315), Streptococcus pyogenes serotype M3 (strain SSI-1), Streptococcus pyogenes serotype M4 (strain MGAS10750), Streptococcus pyogenes serotype M49 (strain NZ131), Streptococcus pyogenes serotype M5 (strain Manfredo), Streptococcus pyogenes serotype M6 (strain ATCC BAA-946 / MGAS10394), Streptococcus ratti, Streptococcus sanguinis (strain SK36), Streptococcus suis (strain 05ZYH33), Streptococcus suis (strain 89/1591), Streptococcus suis (strain 98HAH33), Streptococcus thermophilus (strain ATCC BAA-250 / LMG 18311), Streptococcus thermophilus (strain ATCC BAA-491 / LMD-9), Streptococcus thermophilus (strain CNRZ 1066), Streptococcus uberis (strain ATCC BAA-854 / 0140J)</t>
-  </si>
-  <si>
-    <t>ornithine decarboxylase ODC</t>
-  </si>
-  <si>
-    <t>ornithine_decarboxylase_ODC</t>
-  </si>
-  <si>
-    <t>peptidoglycan hydrolases</t>
-  </si>
-  <si>
-    <t>Peptidoglycan biosynthesis</t>
-  </si>
-  <si>
-    <t>peptidoglycan_hydrolases</t>
-  </si>
-  <si>
-    <t>peroxiredoxin</t>
-  </si>
-  <si>
-    <t>Glutathione metabolism</t>
   </si>
   <si>
     <t>Phenylalanine aminotransferase</t>
@@ -4300,39 +4186,6 @@
     <t>Citrobacter freundii</t>
   </si>
   <si>
-    <t>Actinomadura craniellae, Actinomadura sp. WAC 06369, Clostridium sp, Clostridium sp. C8, Clostridium sp. CAG:354_28_25, Clostridium sp. D5, Clostridium sp. FS41, Eggerthella lenta, Enterococcus sp. 7D2_DIV0200, Enterococcus ureilyticus, Klebsiella oxytoca, Klebsiella spallanzanii, Tsukamurella paurometabola, Tsukamurella pseudospumae, uncultured Clostridium sp</t>
-  </si>
-  <si>
-    <t>propionate CoA-transferase</t>
-  </si>
-  <si>
-    <t>propionate_CoA-transferase</t>
-  </si>
-  <si>
-    <t>Klebsiella aerogenes</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>taxa</t>
-  </si>
-  <si>
-    <t>Clostridium perfringens D str. JGS1721</t>
-  </si>
-  <si>
-    <t>putrescine aminotransferase</t>
-  </si>
-  <si>
-    <t>putrescine_aminotransferase</t>
-  </si>
-  <si>
-    <t>Citrobacter koseri (strain ATCC BAA-895 / CDC 4225-83 / SGSC4696), Clostridium tetani (strain Massachusetts / E88), Enterobacter sp. (strain 638), Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O157:H7 (strain EC4115 / EHEC), Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia coli O9:H4 (strain HS), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Klebsiella aerogenes, Klebsiella pneumoniae (strain 342), Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578), Proteus mirabilis, Proteus mirabilis (strain HI4320), Streptococcus gordonii (strain Challis / ATCC 35105 / BCRC 15272 / CH1 / DL1 / V288), Streptococcus pyogenes serotype M1, Streptococcus pyogenes serotype M12 (strain MGAS2096), Streptococcus pyogenes serotype M12 (strain MGAS9429), Streptococcus pyogenes serotype M18 (strain MGAS8232), Streptococcus pyogenes serotype M2 (strain MGAS10270), Streptococcus pyogenes serotype M28 (strain MGAS6180), Streptococcus pyogenes serotype M3 (strain ATCC BAA-595 / MGAS315), Streptococcus pyogenes serotype M3 (strain SSI-1), Streptococcus pyogenes serotype M4 (strain MGAS10750), Streptococcus pyogenes serotype M49 (strain NZ131), Streptococcus pyogenes serotype M5 (strain Manfredo), Streptococcus pyogenes serotype M6 (strain ATCC BAA-946 / MGAS10394)</t>
-  </si>
-  <si>
     <t>Pyruvate decarboxylase</t>
   </si>
   <si>
@@ -4342,18 +4195,12 @@
     <t>Citrobacter freundii, Enterobacter cloacae</t>
   </si>
   <si>
-    <t>Bacteroides ovatus (strain ATCC 8483 / DSM 1896 / JCM 5824 / BCRC 10623 / CCUG 4943 / NCTC 11153), Bifidobacterium breve, Bifidobacterium breve (strain ACS-071-V-Sch8b), Bifidobacterium longum, Butyrivibrio fibrisolvens, Citrobacter koseri (strain ATCC BAA-895 / CDC 4225-83 / SGSC4696), Clostridium acetobutylicum (strain ATCC 824 / DSM 792 / JCM 1419 / IAM 19013 / LMG 5710 / NBRC 13948 / NRRL B-527 / VKM B-1787 / 2291 / W), Clostridium cellulovorans (strain ATCC 35296 / DSM 3052 / OCM 3 / 743B), Clostridium longisporum, Clostridium sp. (strain F1), Enterobacter sp. (strain 638), Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O157:H7 (strain EC4115 / EHEC), Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia coli O9:H4 (strain HS), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Klebsiella oxytoca, Klebsiella pneumoniae, Klebsiella pneumoniae (strain 342), Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578), Lactobacillus acidophilus, Proteus mirabilis (strain HI4320), Ruminococcus albus, Ruminococcus flavefaciens, Streptococcus agalactiae serotype III (strain NEM316), Streptococcus equi subsp. zooepidemicus (strain H70), Streptococcus equi subsp. zooepidemicus (strain MGCS10565), Streptococcus gordonii (strain Challis / ATCC 35105 / BCRC 15272 / CH1 / DL1 / V288), Streptococcus mutans serotype c (strain ATCC 700610 / UA159), Streptococcus pneumoniae (strain ATCC 700669 / Spain 23F-1), Streptococcus pneumoniae (strain ATCC BAA-255 / R6), Streptococcus pneumoniae (strain JJA), Streptococcus pneumoniae serotype 4 (strain ATCC BAA-334 / TIGR4), Streptococcus pyogenes serotype M1, Streptococcus pyogenes serotype M12 (strain MGAS2096), Streptococcus pyogenes serotype M12 (strain MGAS9429), Streptococcus pyogenes serotype M18 (strain MGAS8232), Streptococcus pyogenes serotype M2 (strain MGAS10270), Streptococcus pyogenes serotype M28 (strain MGAS6180), Streptococcus pyogenes serotype M3 (strain ATCC BAA-595 / MGAS315), Streptococcus pyogenes serotype M3 (strain SSI-1), Streptococcus pyogenes serotype M4 (strain MGAS10750), Streptococcus pyogenes serotype M5 (strain Manfredo), Streptococcus pyogenes serotype M6 (strain ATCC BAA-946 / MGAS10394), Streptococcus sanguinis (strain SK36), Streptococcus uberis (strain ATCC BAA-854 / 0140J)</t>
-  </si>
-  <si>
     <t>Pyruvate kinase pykF</t>
   </si>
   <si>
     <t>Pyruvic acid synthesis out of glucose</t>
   </si>
   <si>
-    <t>Clostridium perfringens (strain 13 / Type A), Escherichia coli (strain K12), Streptococcus agalactiae serotype V (strain ATCC BAA-611 / 2603 V/R)</t>
-  </si>
-  <si>
     <t>Quinolinate synthase</t>
   </si>
   <si>
@@ -4363,21 +4210,6 @@
     <t>Clostridium acetobutylicum (strain ATCC 824 / DSM 792 / JCM 1419 / IAM 19013 / LMG 5710 / NBRC 13948 / NRRL B-527 / VKM B-1787 / 2291 / W), Clostridium kluyveri (strain ATCC 8527 / DSM 555 / NBRC 12016 / NCIMB 10680 / K1), Clostridium kluyveri (strain NBRC 12016), Clostridium novyi (strain NT), Clostridium perfringens (strain 13 / Type A), Clostridium perfringens (strain ATCC 13124 / DSM 756 / JCM 1290 / NCIMB 6125 / NCTC 8237 / Type A), Clostridium perfringens (strain SM101 / Type A), Enterobacter sp. (strain 638), Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia coli O9:H4 (strain HS), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Helicobacter pylori (strain ATCC 700392 / 26695), Helicobacter pylori (strain HPAG1), Helicobacter pylori (strain J99 / ATCC 700824), Listeria innocua serovar 6a (strain ATCC BAA-680 / CLIP 11262), Listeria monocytogenes serotype 4a (strain HCC23), Listeria monocytogenes serotype 4b (strain CLIP80459), Listeria monocytogenes serotype 4b (strain F2365), Listeria monocytogenes serovar 1/2a (strain ATCC BAA-679 / EGD-e)</t>
   </si>
   <si>
-    <t>Bifidobacterium adolescentis, Bifidobacterium breve, Enterococcus faecium</t>
-  </si>
-  <si>
-    <t>riboflavin synthase</t>
-  </si>
-  <si>
-    <t>Riboflavin metabolism</t>
-  </si>
-  <si>
-    <t>riboflavin_synthase</t>
-  </si>
-  <si>
-    <t>Bacteroides fragilis (strain 638R), Bacteroides fragilis (strain ATCC 25285 / DSM 2151 / CCUG 4856 / JCM 11019 / LMG 10263 / NCTC 9343 / Onslow / VPI 2553 / EN-2), Bacteroides fragilis (strain YCH46), Bacteroides helcogenes (strain ATCC 35417 / DSM 20613 / JCM 6297 / CCUG 15421 / P 36-108), Bacteroides thetaiotaomicron (strain ATCC 29148 / DSM 2079 / JCM 5827 / CCUG 10774 / NCTC 10582 / VPI-5482 / E50), Citrobacter freundii, Citrobacter koseri (strain ATCC BAA-895 / CDC 4225-83 / SGSC4696), Clostridium acetobutylicum (strain ATCC 824 / DSM 792 / JCM 1419 / IAM 19013 / LMG 5710 / NBRC 13948 / NRRL B-527 / VKM B-1787 / 2291 / W), Clostridium beijerinckii (strain ATCC 51743 / NCIMB 8052), Clostridium botulinum (strain ATCC 19397 / Type A), Clostridium botulinum (strain Alaska E43 / Type E3), Clostridium botulinum (strain Eklund 17B / Type B), Clostridium botulinum (strain Hall / ATCC 3502 / NCTC 13319 / Type A), Clostridium botulinum (strain Langeland / NCTC 10281 / Type F), Clostridium botulinum (strain Loch Maree / Type A3), Clostridium botulinum (strain Okra / Type B1), Clostridium kluyveri (strain NBRC 12016), Clostridium novyi (strain NT), Clostridium perfringens (strain 13 / Type A), Clostridium perfringens (strain ATCC 13124 / DSM 756 / JCM 1290 / NCIMB 6125 / NCTC 8237 / Type A), Clostridium tetani (strain Massachusetts / E88), Desulfovibrio desulfuricans (strain ATCC 27774 / DSM 6949 / MB), Enterobacter sp. (strain 638), Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O157:H7 (strain EC4115 / EHEC), Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia coli O9:H4 (strain HS), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Helicobacter acinonychis (strain Sheeba), Helicobacter hepaticus (strain ATCC 51449 / 3B1), Helicobacter pylori (strain ATCC 700392 / 26695), Helicobacter pylori (strain G27), Helicobacter pylori (strain HPAG1), Helicobacter pylori (strain J99 / ATCC 700824), Helicobacter pylori (strain P12), Helicobacter pylori (strain Shi470), Klebsiella pneumoniae, Klebsiella pneumoniae (strain 342), Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578), Parabacteroides distasonis (strain ATCC 8503 / DSM 20701 / CIP 104284 / JCM 5825 / NCTC 11152), Porphyromonas gingivalis (strain ATCC 33277 / DSM 20709 / CIP 103683 / JCM 12257 / NCTC 11834 / 2561), Porphyromonas gingivalis (strain ATCC BAA-308 / W83), Proteus mirabilis (strain HI4320), Streptococcus agalactiae serotype III (strain NEM316), Streptococcus agalactiae serotype Ia (strain ATCC 27591 / A909 / CDC SS700), Streptococcus agalactiae serotype V (strain ATCC BAA-611 / 2603 V/R)</t>
-  </si>
-  <si>
     <t>Serine hydroxymethyltransferase</t>
   </si>
   <si>
@@ -4387,9 +4219,6 @@
     <t>Agathobacter rectalis (strain ATCC 33656 / DSM 3377 / JCM 17463 / KCTC 5835 / VPI 0990), Bacteroides fragilis (strain ATCC 25285 / DSM 2151 / CCUG 4856 / JCM 11019 / LMG 10263 / NCTC 9343 / Onslow / VPI 2553 / EN-2), Bacteroides fragilis (strain YCH46), Bacteroides thetaiotaomicron (strain ATCC 29148 / DSM 2079 / JCM 5827 / CCUG 10774 / NCTC 10582 / VPI-5482 / E50), Bifidobacterium adolescentis (strain ATCC 15703 / DSM 20083 / NCTC 11814 / E194a), Bifidobacterium longum subsp. infantis (strain ATCC 15697 / DSM 20088 / JCM 1222 / NCTC 11817 / S12), Citrobacter koseri (strain ATCC BAA-895 / CDC 4225-83 / SGSC4696), Clostridium acetobutylicum (strain ATCC 824 / DSM 792 / JCM 1419 / IAM 19013 / LMG 5710 / NBRC 13948 / NRRL B-527 / VKM B-1787 / 2291 / W), Clostridium beijerinckii (strain ATCC 51743 / NCIMB 8052), Clostridium botulinum (strain 657 / Type Ba4), Clostridium botulinum (strain ATCC 19397 / Type A), Clostridium botulinum (strain Alaska E43 / Type E3), Clostridium botulinum (strain Eklund 17B / Type B), Clostridium botulinum (strain Hall / ATCC 3502 / NCTC 13319 / Type A), Clostridium botulinum (strain Kyoto / Type A2), Clostridium botulinum (strain Langeland / NCTC 10281 / Type F), Clostridium botulinum (strain Loch Maree / Type A3), Clostridium botulinum (strain Okra / Type B1), Clostridium kluyveri (strain ATCC 8527 / DSM 555 / NBRC 12016 / NCIMB 10680 / K1), Clostridium kluyveri (strain NBRC 12016), Clostridium novyi (strain NT), Clostridium perfringens (strain 13 / Type A), Clostridium perfringens (strain ATCC 13124 / DSM 756 / JCM 1290 / NCIMB 6125 / NCTC 8237 / Type A), Clostridium perfringens (strain SM101 / Type A), Desulfovibrio desulfuricans (strain ATCC 27774 / DSM 6949 / MB), Enterobacter sp. (strain 638), Enterococcus faecalis (strain ATCC 700802 / V583), Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O157:H7 (strain EC4115 / EHEC), Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia coli O9:H4 (strain HS), Helicobacter acinonychis (strain Sheeba), Helicobacter hepaticus (strain ATCC 51449 / 3B1), Helicobacter pylori (strain ATCC 700392 / 26695), Helicobacter pylori (strain G27), Helicobacter pylori (strain HPAG1), Helicobacter pylori (strain J99 / ATCC 700824), Helicobacter pylori (strain P12), Helicobacter pylori (strain Shi470), Klebsiella pneumoniae (strain 342), Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578), Lactobacillus acidophilus (strain ATCC 700396 / NCK56 / N2 / NCFM), Lactobacillus gasseri (strain ATCC 33323 / DSM 20243 / BCRC 14619 / CIP 102991 / JCM 1131 / KCTC 3163 / NCIMB 11718 / NCTC 13722 / AM63), Lactobacillus johnsonii (strain CNCM I-12250 / La1 / NCC 533), Leuconostoc citreum (strain KM20), Leuconostoc mesenteroides subsp. mesenteroides (strain ATCC 8293 / DSM 20343 / BCRC 11652 / CCM 1803 / JCM 6124 / NCDO 523 / NBRC 100496 / NCIMB 8023 / NCTC 12954 / NRRL B-1118 / 37Y), Listeria innocua serovar 6a (strain ATCC BAA-680 / CLIP 11262), Listeria monocytogenes serotype 4a (strain HCC23), Listeria monocytogenes serotype 4b (strain CLIP80459), Listeria monocytogenes serotype 4b (strain F2365), Listeria monocytogenes serovar 1/2a (strain ATCC BAA-679 / EGD-e), Listeria welshimeri serovar 6b (strain ATCC 35897 / DSM 20650 / CCUG 15529 / CIP 8149 / NCTC 11857 / SLCC 5334 / V8), Parabacteroides distasonis (strain ATCC 8503 / DSM 20701 / CIP 104284 / JCM 5825 / NCTC 11152), Pediococcus pentosaceus (strain ATCC 25745 / CCUG 21536 / LMG 10740 / 183-1w), Porphyromonas gingivalis (strain ATCC 33277 / DSM 20709 / CIP 103683 / JCM 12257 / NCTC 11834 / 2561), Porphyromonas gingivalis (strain ATCC BAA-308 / W83), Proteus mirabilis (strain HI4320), Streptococcus agalactiae serotype III (strain NEM316), Streptococcus agalactiae serotype Ia (strain ATCC 27591 / A909 / CDC SS700), Streptococcus agalactiae serotype V (strain ATCC BAA-611 / 2603 V/R), Streptococcus equi subsp. equi (strain 4047), Streptococcus equi subsp. zooepidemicus (strain H70), Streptococcus equi subsp. zooepidemicus (strain MGCS10565), Streptococcus gordonii (strain Challis / ATCC 35105 / BCRC 15272 / CH1 / DL1 / V288), Streptococcus mutans serotype c (strain ATCC 700610 / UA159), Streptococcus pneumoniae (strain 70585), Streptococcus pneumoniae (strain ATCC 700669 / Spain 23F-1), Streptococcus pneumoniae (strain ATCC BAA-255 / R6), Streptococcus pneumoniae (strain CGSP14), Streptococcus pneumoniae (strain Hungary19A-6), Streptococcus pneumoniae (strain JJA), Streptococcus pneumoniae (strain P1031), Streptococcus pneumoniae (strain Taiwan19F-14), Streptococcus pneumoniae serotype 19F (strain G54), Streptococcus pneumoniae serotype 2 (strain D39 / NCTC 7466), Streptococcus pneumoniae serotype 4 (strain ATCC BAA-334 / TIGR4), Streptococcus pyogenes serotype M1, Streptococcus pyogenes serotype M12 (strain MGAS2096), Streptococcus pyogenes serotype M12 (strain MGAS9429), Streptococcus pyogenes serotype M18 (strain MGAS8232), Streptococcus pyogenes serotype M2 (strain MGAS10270), Streptococcus pyogenes serotype M28 (strain MGAS6180), Streptococcus pyogenes serotype M3 (strain ATCC BAA-595 / MGAS315), Streptococcus pyogenes serotype M3 (strain SSI-1), Streptococcus pyogenes serotype M4 (strain MGAS10750), Streptococcus pyogenes serotype M49 (strain NZ131), Streptococcus pyogenes serotype M5 (strain Manfredo), Streptococcus pyogenes serotype M6 (strain ATCC BAA-946 / MGAS10394), Streptococcus sanguinis (strain SK36), Streptococcus suis (strain 05ZYH33), Streptococcus suis (strain 98HAH33), Streptococcus thermophilus (strain ATCC BAA-250 / LMG 18311), Streptococcus thermophilus (strain ATCC BAA-491 / LMD-9), Streptococcus thermophilus (strain CNRZ 1066), Streptococcus uberis (strain ATCC BAA-854 / 0140J)</t>
   </si>
   <si>
-    <t>Anaerostipes caccae (strain DSM 14662 / CCUG 47493 / JCM 13470 / NCIMB 13811 / L1-92)</t>
-  </si>
-  <si>
     <t>Serine racemase</t>
   </si>
   <si>
@@ -4399,9 +4228,6 @@
     <t>Enterococcus gallinarum</t>
   </si>
   <si>
-    <t>Clostridium tagluense, Enterococcus florum</t>
-  </si>
-  <si>
     <t>Serotonin N- acetyltransferase</t>
   </si>
   <si>
@@ -4411,9 +4237,6 @@
     <t>Acidaminococcus fermentans (strain ATCC 25085 / DSM 20731 / CCUG 9996 / CIP 106432 / VR4), Acidaminococcus intestini (strain RyC-MR95), Actinomyces naeslundii, Actinomyces radicidentis, Actinomyces slackii, Actinomyces sp. oral taxon 169, Actinomyces sp. oral taxon 171 str. F0337, Actinomyces viscosus, Agathobacter rectalis, Agathobacter rectalis (strain ATCC 33656 / DSM 3377 / JCM 17463 / KCTC 5835 / VPI 0990), Agathobacter rectalis CAG:36, Anaerostipes hadrus, Bifidobacterium adolescentis, Bifidobacterium adolescentis (strain ATCC 15703 / DSM 20083 / NCTC 11814 / E194a), Bifidobacterium animalis subsp. lactis (strain AD011), Bifidobacterium animalis subsp. lactis CNCM I-2494, Bifidobacterium bifidum (strain PRL2010), Bifidobacterium bifidum LMG 13195, Bifidobacterium catenulatum PV20-2, Bifidobacterium choerinum, Bifidobacterium dentium, Bifidobacterium dentium (strain ATCC 27534 / DSM 20436 / JCM 1195 / Bd1), Bifidobacterium eulemuris, Bifidobacterium longum, Bifidobacterium longum (strain DJO10A), Bifidobacterium longum (strain NCC 2705), Bifidobacterium longum subsp. infantis CCUG 52486, Bifidobacterium longum subsp. longum, Bifidobacterium longum subsp. longum (strain JDM301), Bifidobacterium pseudolongum PV8-2, Bifidobacterium pullorum subsp. gallinarum, Bifidobacterium thermophilum RBL67, Blautia argi, Blautia glucerasea, Blautia luti, Blautia obeum, Blautia obeum A2-162, Blautia producta, Blautia pseudococcoides, Blautia sp. SC05B48, Blautia sp. SF-50, Blautia wexlerae, Butyrivibrio fibrisolvens, Butyrivibrio fibrisolvens DSM 3071, Butyrivibrio hungatei, Butyrivibrio sp. M55, Butyrivibrio sp. TB, Butyrivibrio sp. ob235, Candidatus Blautia stercorigallinarum, Candidatus Enterococcus clewellii, Candidatus Eubacterium avistercoris, Citrobacter amalonaticus, Citrobacter amalonaticus Y19, Citrobacter freundii complex sp. CFNIH2, Citrobacter koseri, Citrobacter sp. CFNIH10, Citrobacter telavivensis, Clostridium autoethanogenum, Clostridium baratii, Clostridium baratii str. Sullivan, Clostridium botulinum, Clostridium botulinum (strain Hall / ATCC 3502 / NCTC 13319 / Type A), Clostridium butyricum, Clostridium cellulovorans (strain ATCC 35296 / DSM 3052 / OCM 3 / 743B), Clostridium drakei, Clostridium estertheticum, Clostridium felsineum, Clostridium fermenticellae, Clostridium gasigenes, Clostridium innocuum, Clostridium kluyveri, Clostridium kluyveri (strain ATCC 8527 / DSM 555 / NBRC 12016 / NCIMB 10680 / K1), Clostridium kluyveri (strain NBRC 12016), Clostridium ljungdahlii (strain ATCC 55383 / DSM 13528 / PETC), Clostridium luticellarii, Clostridium neonatale, Clostridium paraputrificum, Clostridium pasteurianum BC1, Clostridium perfringens, Clostridium saccharobutylicum DSM 13864, Clostridium saccharoperbutylacetonicum N1-4(HMT), Clostridium sartagoforme, Clostridium scatologenes, Clostridium sp. 'deep sea', Clostridium sp. AWRP, Clostridium sp. DL-VIII, Clostridium sp. JS66, Clostridium sp. MB40-C1, Clostridium tertium, Clostridium thailandense, Clostridium uliginosum, Desulfovibrio ferrophilus, Desulfovibrio piger, Dialister hominis, Enterococcus casseliflavus EC20, Enterococcus sp. FDAARGOS_375, Escherichia alba, Eubacterium callanderi, Eubacterium cellulosolvens (strain ATCC 43171 / JCM 9499 / 6), Eubacterium limosum, Eubacterium maltosivorans, Eubacterium pyruvativorans, Eubacterium ramulus, Eubacterium ruminantium, Eubacterium sp, Eubacterium uniforme, Faecalibacterium prausnitzii, Faecalibacterium prausnitzii L2-6, Faecalibacterium prausnitzii SL3/3, Klebsiella huaxiensis, Klebsiella sp. RHBSTW-00484, Lactobacillus acidophilus (strain ATCC 700396 / NCK56 / N2 / NCFM), Lactobacillus crispatus, Lactobacillus crispatus (strain ST1), Lactobacillus delbrueckii subsp. delbrueckii, Lactobacillus delbrueckii subsp. lactis, Lactobacillus gasseri, Lactobacillus gasseri (strain ATCC 33323 / DSM 20243 / BCRC 14619 / CIP 102991 / JCM 1131 / KCTC 3163 / NCIMB 11718 / NCTC 13722 / AM63), Lactobacillus gasseri SV-16A-US, Lactobacillus helveticus, Lactobacillus helveticus (strain DPC 4571), Lactobacillus johnsonii, Lactobacillus johnsonii (strain CNCM I-12250 / La1 / NCC 533), Lactobacillus johnsonii (strain FI9785), Lactobacillus johnsonii N6.2, Lactobacillus paragasseri, Lactobacillus sp. 3B(2020), Lactobacillus sp. CBA3605, Lactobacillus sp. CBA3606, Lactobacillus sp. JCM 1131, Lactobacillus sp. JM1, Leuconostoc carnosum, Leuconostoc carnosum (strain JB16), Leuconostoc kimchii (strain IMSNU 11154 / KCTC 2386 / IH25), Megasphaera paucivorans, Megasphaera stantonii, Providencia huaxiensis, Providencia rettgeri, Providencia sp. 1701011, Providencia sp. PROV040, Providencia sp. PROV046, Providencia sp. PROV099, Providencia sp. PROV114, Providencia sp. PROV175, Ruminococcus albus, Ruminococcus albus (strain ATCC 27210 / DSM 20455 / JCM 14654 / NCDO 2250 / 7), Ruminococcus flavefaciens, Ruminococcus sp. YE71, Streptococcus acidominimus, Streptococcus agalactiae, Streptococcus agalactiae serotype III (strain NEM316), Streptococcus agalactiae serotype V (strain ATCC BAA-611 / 2603 V/R), Streptococcus anginosus, Streptococcus australis, Streptococcus canis, Streptococcus chenjunshii, Streptococcus constellatus, Streptococcus cristatus, Streptococcus cuniculi, Streptococcus danieliae, Streptococcus downei MFe28, Streptococcus dysgalactiae subsp. dysgalactiae, Streptococcus dysgalactiae subsp. equisimilis, Streptococcus dysgalactiae subsp. equisimilis AC-2713, Streptococcus equi subsp. equi, Streptococcus equi subsp. equi (strain 4047), Streptococcus equi subsp. zooepidemicus, Streptococcus equi subsp. zooepidemicus (strain H70), Streptococcus equi subsp. zooepidemicus (strain MGCS10565), Streptococcus equinus, Streptococcus ferus, Streptococcus gallolyticus, Streptococcus gallolyticus (strain UCN34), Streptococcus gordonii (strain Challis / ATCC 35105 / BCRC 15272 / CH1 / DL1 / V288), Streptococcus gwangjuensis, Streptococcus halitosis, Streptococcus henryi, Streptococcus hillyeri, Streptococcus hyointestinalis, Streptococcus iners, Streptococcus iners subsp. hyiners, Streptococcus infantarius, Streptococcus infantis, Streptococcus intermedius, Streptococcus intermedius B196, Streptococcus lutetiensis, Streptococcus lutetiensis 033, Streptococcus macedonicus, Streptococcus massiliensis, Streptococcus merionis, Streptococcus milleri, Streptococcus mitis, Streptococcus mitis (strain B6), Streptococcus mutans, Streptococcus mutans serotype c (strain ATCC 700610 / UA159), Streptococcus oralis, Streptococcus oralis (strain Uo5), Streptococcus oralis subsp. oralis, Streptococcus oralis subsp. tigurinus, Streptococcus ovuberis, Streptococcus pantholopis, Streptococcus parasanguinis, Streptococcus parasanguinis (strain ATCC 15912 / DSM 6778 / CIP 104372 / LMG 14537), Streptococcus parasanguinis FW213, Streptococcus pasteurianus (strain ATCC 43144 / JCM 5346 / CCUG 46074 / CDC 1723-81), Streptococcus periodonticum, Streptococcus pluranimalium, Streptococcus pneumoniae, Streptococcus pneumoniae (strain 70585), Streptococcus pneumoniae (strain ATCC BAA-255 / R6), Streptococcus pneumoniae (strain Hungary19A-6), Streptococcus pneumoniae (strain JJA), Streptococcus pneumoniae serotype 2 (strain D39 / NCTC 7466), Streptococcus pneumoniae serotype 4 (strain ATCC BAA-334 / TIGR4), Streptococcus porcinus, Streptococcus pseudopneumoniae, Streptococcus pseudoporcinus, Streptococcus pyogenes serotype M1, Streptococcus pyogenes serotype M12 (strain MGAS9429), Streptococcus pyogenes serotype M3 (strain ATCC BAA-595 / MGAS315), Streptococcus pyogenes serotype M49 (strain NZ131), Streptococcus ruminantium, Streptococcus ruminicola, Streptococcus salivarius, Streptococcus sanguinis, Streptococcus sanguinis (strain SK36), Streptococcus sinensis, Streptococcus sp, Streptococcus sp. 116-D4, Streptococcus sp. 1643, Streptococcus sp. C150, Streptococcus sp. C300, Streptococcus sp. CP1998, Streptococcus sp. D7B5, Streptococcus sp. DTU_2020_1000888_1_SI_GRL_NUU_041A, Streptococcus sp. DTU_2020_1001019_1_SI_AUS_MUR_006, Streptococcus sp. FDAARGOS_192, Streptococcus sp. HMSC10E12, Streptococcus sp. KHUD_010, Streptococcus sp. KS 6, Streptococcus sp. LPB0220, Streptococcus sp. M143, Streptococcus sp. M334, Streptococcus sp. NCTC 11567, Streptococcus sp. NLAE-zl-C503, Streptococcus sp. NPS 308, Streptococcus sp. NSJ-72, Streptococcus sp. SN-1, Streptococcus sp. oral taxon 061, Streptococcus sp. oral taxon 064, Streptococcus sp. oral taxon 431, Streptococcus suis, Streptococcus suis (strain BM407), Streptococcus suis (strain GZ1), Streptococcus suis 6407, Streptococcus suis D12, Streptococcus suivaginalis, Streptococcus thermophilus, Streptococcus thermophilus (strain ATCC BAA-250 / LMG 18311), Streptococcus troglodytae, Streptococcus uberis, Streptococcus uberis (strain ATCC BAA-854 / 0140J), Streptococcus vestibularis, Streptococcus viridans, Sutterella megalosphaeroides, Sutterella seckii, Sutterella sp, Veillonella atypica, Veillonella dispar, Veillonella parvula, Veillonella rodentium, Veillonella rogosae, Veillonella sp, uncultured Blautia sp, uncultured Clostridium sp, uncultured Desulfovibrio sp, uncultured Eubacterium sp, uncultured Megasphaera sp, uncultured Ruminococcus sp</t>
   </si>
   <si>
-    <t>Clostridium aciditolerans, Clostridium muellerianum, Clostridium thailandense, Eubacterium sp. BIOML-A2</t>
-  </si>
-  <si>
     <t>Spermidine synthase</t>
   </si>
   <si>
@@ -4423,36 +4246,12 @@
     <t>Agathobacter rectalis (strain ATCC 33656 / DSM 3377 / JCM 17463 / KCTC 5835 / VPI 0990), Bifidobacterium longum (strain NCC 2705), Citrobacter koseri (strain ATCC BAA-895 / CDC 4225-83 / SGSC4696), Clostridium acetobutylicum (strain ATCC 824 / DSM 792 / JCM 1419 / IAM 19013 / LMG 5710 / NBRC 13948 / NRRL B-527 / VKM B-1787 / 2291 / W), Clostridium beijerinckii (strain ATCC 51743 / NCIMB 8052), Clostridium botulinum (strain Alaska E43 / Type E3), Clostridium botulinum (strain Eklund 17B / Type B), Clostridium kluyveri (strain ATCC 8527 / DSM 555 / NBRC 12016 / NCIMB 10680 / K1), Clostridium kluyveri (strain NBRC 12016), Clostridium perfringens (strain 13 / Type A), Clostridium perfringens (strain ATCC 13124 / DSM 756 / JCM 1290 / NCIMB 6125 / NCTC 8237 / Type A), Clostridium perfringens (strain SM101 / Type A), Clostridium tetani (strain Massachusetts / E88), Enterobacter sp. (strain 638), Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O157:H7 (strain EC4115 / EHEC), Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia coli O9:H4 (strain HS), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Helicobacter acinonychis (strain Sheeba), Helicobacter pylori (strain ATCC 700392 / 26695), Helicobacter pylori (strain G27), Helicobacter pylori (strain HPAG1), Helicobacter pylori (strain J99 / ATCC 700824), Helicobacter pylori (strain P12), Helicobacter pylori (strain Shi470), Klebsiella pneumoniae (strain 342), Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578), Streptococcus pneumoniae (strain ATCC BAA-255 / R6), Streptococcus pneumoniae serotype 4 (strain ATCC BAA-334 / TIGR4), Streptococcus uberis (strain ATCC BAA-854 / 0140J)</t>
   </si>
   <si>
-    <t>Enterobacter cloacae</t>
-  </si>
-  <si>
     <t>Superoxide dismutase SodA</t>
   </si>
   <si>
     <t>Streptococcus gallolyticus, Streptococcus sanguinis</t>
   </si>
   <si>
-    <t>Clostridium cochlearium, Clostridium tetanomorphum, Escherichia coli (strain K12), Escherichia coli O157:H7, Eubacterium barkeri, Porphyromonas gingivalis (strain ATCC BAA-308 / W83)</t>
-  </si>
-  <si>
-    <t>thioredoxin reductase</t>
-  </si>
-  <si>
-    <t>thioredoxin_reductase</t>
-  </si>
-  <si>
-    <t>Bacteroides thetaiotaomicron (strain ATCC 29148 / DSM 2079 / JCM 5827 / CCUG 10774 / NCTC 10582 / VPI-5482 / E50), Bifidobacterium longum subsp. infantis (strain ATCC 15697 / DSM 20088 / JCM 1222 / NCTC 11817 / S12), Clostridium perfringens (strain 13 / Type A), Clostridium perfringens (strain ATCC 13124 / DSM 756 / JCM 1290 / NCIMB 6125 / NCTC 8237 / Type A), Escherichia coli (strain K12), Streptococcus dysgalactiae, Streptococcus pneumoniae (strain ATCC BAA-255 / R6), Streptococcus pneumoniae serotype 4 (strain ATCC BAA-334 / TIGR4), Streptococcus pyogenes serotype M1, Streptococcus pyogenes serotype M49</t>
-  </si>
-  <si>
-    <t>tryptophan 2-monooxygenase</t>
-  </si>
-  <si>
-    <t>tryptophan_2-monooxygenase</t>
-  </si>
-  <si>
-    <t>Klebsiella pneumoniae, Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578), Klebsiella pneumoniae subsp. pneumoniae (strain HS11286)</t>
-  </si>
-  <si>
     <t>Tryptophan permease</t>
   </si>
   <si>
@@ -4471,16 +4270,10 @@
     <t>Bacteroides fragilis (strain ATCC 25285 / DSM 2151 / CCUG 4856 / JCM 11019 / LMG 10263 / NCTC 9343 / Onslow / VPI 2553 / EN-2), Bacteroides fragilis (strain YCH46), Bacteroides thetaiotaomicron (strain ATCC 29148 / DSM 2079 / JCM 5827 / CCUG 10774 / NCTC 10582 / VPI-5482 / E50), Bifidobacterium longum (strain NCC 2705), Citrobacter koseri (strain ATCC BAA-895 / CDC 4225-83 / SGSC4696), Clostridium acetobutylicum (strain ATCC 824 / DSM 792 / JCM 1419 / IAM 19013 / LMG 5710 / NBRC 13948 / NRRL B-527 / VKM B-1787 / 2291 / W), Clostridium beijerinckii (strain ATCC 51743 / NCIMB 8052), Clostridium kluyveri (strain ATCC 8527 / DSM 555 / NBRC 12016 / NCIMB 10680 / K1), Clostridium kluyveri (strain NBRC 12016), Desulfovibrio desulfuricans (strain ATCC 27774 / DSM 6949 / MB), Enterobacter sp. (strain 638), Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O157:H7 (strain EC4115 / EHEC), Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia coli O9:H4 (strain HS), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Helicobacter hepaticus (strain ATCC 51449 / 3B1), Helicobacter pylori (strain ATCC 700392 / 26695), Helicobacter pylori (strain G27), Helicobacter pylori (strain HPAG1), Helicobacter pylori (strain J99 / ATCC 700824), Helicobacter pylori (strain P12), Helicobacter pylori (strain Shi470), Klebsiella aerogenes, Klebsiella pneumoniae (strain 342), Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578), Listeria innocua serovar 6a (strain ATCC BAA-680 / CLIP 11262), Listeria monocytogenes serotype 4a (strain HCC23), Listeria monocytogenes serotype 4b (strain CLIP80459), Listeria monocytogenes serotype 4b (strain F2365), Listeria monocytogenes serovar 1/2a (strain ATCC BAA-679 / EGD-e), Listeria welshimeri serovar 6b (strain ATCC 35897 / DSM 20650 / CCUG 15529 / CIP 8149 / NCTC 11857 / SLCC 5334 / V8), Parabacteroides distasonis (strain ATCC 8503 / DSM 20701 / CIP 104284 / JCM 5825 / NCTC 11152), Proteus mirabilis (strain HI4320), Streptococcus gordonii (strain Challis / ATCC 35105 / BCRC 15272 / CH1 / DL1 / V288), Streptococcus mutans serotype c (strain ATCC 700610 / UA159), Streptococcus pneumoniae (strain 70585), Streptococcus pneumoniae (strain ATCC 700669 / Spain 23F-1), Streptococcus pneumoniae (strain ATCC BAA-255 / R6), Streptococcus pneumoniae (strain Hungary19A-6), Streptococcus pneumoniae (strain JJA), Streptococcus pneumoniae (strain P1031), Streptococcus pneumoniae (strain Taiwan19F-14), Streptococcus pneumoniae serotype 19F (strain G54), Streptococcus pneumoniae serotype 2 (strain D39 / NCTC 7466), Streptococcus pneumoniae serotype 4 (strain ATCC BAA-334 / TIGR4), Streptococcus sanguinis (strain SK36), Streptococcus thermophilus (strain ATCC BAA-250 / LMG 18311), Streptococcus thermophilus (strain ATCC BAA-491 / LMD-9), Streptococcus thermophilus (strain CNRZ 1066)</t>
   </si>
   <si>
-    <t>Bacteroides faecichinchillae, Bacteroides sp. AR20, Butyrivibrio hungatei DSM 14810, Butyrivibrio sp. TB, Caloramator fervidus, Clostridium acidisoli DSM 12555, Clostridium cavendishii DSM 21758, Clostridium frigidicarnis, Clostridium gasigenes, Clostridium intestinale DSM 6191, Clostridium uliginosum, Eubacterium aggregans, Eubacterium callanderi, Prevotella communis, Ruminococcus flavefaciens</t>
-  </si>
-  <si>
     <t>Tryptophan synthase beta</t>
   </si>
   <si>
     <t>Bacteroides fragilis (strain ATCC 25285 / DSM 2151 / CCUG 4856 / JCM 11019 / LMG 10263 / NCTC 9343 / Onslow / VPI 2553 / EN-2), Bacteroides fragilis (strain YCH46), Bacteroides thetaiotaomicron (strain ATCC 29148 / DSM 2079 / JCM 5827 / CCUG 10774 / NCTC 10582 / VPI-5482 / E50), Citrobacter koseri (strain ATCC BAA-895 / CDC 4225-83 / SGSC4696), Clostridium acetobutylicum (strain ATCC 824 / DSM 792 / JCM 1419 / IAM 19013 / LMG 5710 / NBRC 13948 / NRRL B-527 / VKM B-1787 / 2291 / W), Clostridium beijerinckii (strain ATCC 51743 / NCIMB 8052), Clostridium botulinum (strain Alaska E43 / Type E3), Clostridium botulinum (strain Eklund 17B / Type B), Clostridium kluyveri (strain ATCC 8527 / DSM 555 / NBRC 12016 / NCIMB 10680 / K1), Clostridium kluyveri (strain NBRC 12016), Clostridium novyi (strain NT), Enterobacter cloacae, Enterobacter sp. (strain 638), Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O157:H7 (strain EC4115 / EHEC), Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia coli O9:H4 (strain HS), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Helicobacter hepaticus (strain ATCC 51449 / 3B1), Helicobacter pylori (strain ATCC 700392 / 26695), Helicobacter pylori (strain J99 / ATCC 700824), Klebsiella aerogenes, Klebsiella pneumoniae (strain 342), Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578), Listeria innocua serovar 6a (strain ATCC BAA-680 / CLIP 11262), Listeria monocytogenes serotype 4a (strain HCC23), Listeria monocytogenes serotype 4b (strain CLIP80459), Listeria monocytogenes serotype 4b (strain F2365), Listeria monocytogenes serovar 1/2a (strain ATCC BAA-679 / EGD-e), Listeria welshimeri serovar 6b (strain ATCC 35897 / DSM 20650 / CCUG 15529 / CIP 8149 / NCTC 11857 / SLCC 5334 / V8), Parabacteroides distasonis (strain ATCC 8503 / DSM 20701 / CIP 104284 / JCM 5825 / NCTC 11152), Pediococcus pentosaceus (strain ATCC 25745 / CCUG 21536 / LMG 10740 / 183-1w), Proteus mirabilis (strain HI4320), Streptococcus mutans serotype c (strain ATCC 700610 / UA159), Streptococcus pneumoniae (strain 70585), Streptococcus pneumoniae (strain ATCC 700669 / Spain 23F-1), Streptococcus pneumoniae (strain ATCC BAA-255 / R6), Streptococcus pneumoniae (strain CGSP14), Streptococcus pneumoniae (strain Hungary19A-6), Streptococcus pneumoniae (strain JJA), Streptococcus pneumoniae (strain P1031), Streptococcus pneumoniae (strain Taiwan19F-14), Streptococcus pneumoniae serotype 19F (strain G54), Streptococcus pneumoniae serotype 2 (strain D39 / NCTC 7466), Streptococcus pneumoniae serotype 4 (strain ATCC BAA-334 / TIGR4), Streptococcus pyogenes serotype M6 (strain ATCC BAA-946 / MGAS10394), Streptococcus thermophilus (strain ATCC BAA-250 / LMG 18311), Streptococcus thermophilus (strain ATCC BAA-491 / LMD-9), Streptococcus thermophilus (strain CNRZ 1066)</t>
-  </si>
-  <si>
-    <t>Clostridium acetobutylicum (strain ATCC 824 / DSM 792 / JCM 1419 / IAM 19013 / LMG 5710 / NBRC 13948 / NRRL B-527 / VKM B-1787 / 2291 / W), Clostridium pasteurianum, Escherichia coli (strain K12), Escherichia coli O157:H7, Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Helicobacter pylori (strain ATCC 700392 / 26695), Helicobacter pylori (strain J99 / ATCC 700824), Listeria innocua serovar 6a (strain ATCC BAA-680 / CLIP 11262), Listeria monocytogenes serotype 4b (strain F2365), Listeria monocytogenes serovar 1/2a (strain ATCC BAA-679 / EGD-e), Streptococcus agalactiae serotype III (strain NEM316), Streptococcus agalactiae serotype V (strain ATCC BAA-611 / 2603 V/R), Streptococcus gordonii, Streptococcus mutans serotype c (strain ATCC 700610 / UA159), Streptococcus parasanguinis, Streptococcus pneumoniae, Streptococcus pneumoniae (strain ATCC BAA-255 / R6), Streptococcus pneumoniae serotype 2 (strain D39 / NCTC 7466), Streptococcus pneumoniae serotype 4 (strain ATCC BAA-334 / TIGR4), Streptococcus sanguinis</t>
   </si>
   <si>
     <t>Tryptophanase</t>
@@ -4496,9 +4289,6 @@
 transport protein</t>
   </si>
   <si>
-    <t>Citrobacter koseri (strain ATCC BAA-895 / CDC 4225-83 / SGSC4696), Enterobacter sp. (strain 638), Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O157:H7 (strain EC4115 / EHEC), Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia coli O9:H4 (strain HS), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Klebsiella pneumoniae (strain 342), Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578)</t>
-  </si>
-  <si>
     <t>Tyrosine aminotransferase</t>
   </si>
   <si>
@@ -4508,9 +4298,6 @@
     <t>Escherichia coli (strain K12), Klebsiella pneumoniae</t>
   </si>
   <si>
-    <t>Agathobacter rectalis (strain ATCC 33656 / DSM 3377 / JCM 17463 / KCTC 5835 / VPI 0990), Bacteroides fragilis (strain YCH46), Bacteroides thetaiotaomicron (strain ATCC 29148 / DSM 2079 / JCM 5827 / CCUG 10774 / NCTC 10582 / VPI-5482 / E50), Bifidobacterium longum subsp. infantis (strain ATCC 15697 / DSM 20088 / JCM 1222 / NCTC 11817 / S12), Citrobacter koseri (strain ATCC BAA-895 / CDC 4225-83 / SGSC4696), Clostridium acetobutylicum (strain ATCC 824 / DSM 792 / JCM 1419 / IAM 19013 / LMG 5710 / NBRC 13948 / NRRL B-527 / VKM B-1787 / 2291 / W), Clostridium beijerinckii, Clostridium beijerinckii (strain ATCC 51743 / NCIMB 8052), Clostridium botulinum (strain 657 / Type Ba4), Clostridium botulinum (strain ATCC 19397 / Type A), Clostridium botulinum (strain Alaska E43 / Type E3), Clostridium botulinum (strain Eklund 17B / Type B), Clostridium botulinum (strain Hall / ATCC 3502 / NCTC 13319 / Type A), Clostridium botulinum (strain Kyoto / Type A2), Clostridium botulinum (strain Langeland / NCTC 10281 / Type F), Clostridium botulinum (strain Loch Maree / Type A3), Clostridium botulinum (strain Okra / Type B1), Clostridium kluyveri (strain ATCC 8527 / DSM 555 / NBRC 12016 / NCIMB 10680 / K1), Clostridium kluyveri (strain NBRC 12016), Clostridium novyi (strain NT), Clostridium perfringens (strain 13 / Type A), Clostridium perfringens (strain ATCC 13124 / DSM 756 / JCM 1290 / NCIMB 6125 / NCTC 8237 / Type A), Clostridium perfringens (strain SM101 / Type A), Clostridium tetani (strain Massachusetts / E88), Desulfovibrio desulfuricans (strain ATCC 27774 / DSM 6949 / MB), Enterobacter sp. (strain 638), Enterococcus faecalis (strain ATCC 47077 / OG1RF), Enterococcus faecalis (strain ATCC 700802 / V583), Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli (strain UTI89 / UPEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O139:H28 (strain E24377A / ETEC), Escherichia coli O157:H7, Escherichia coli O157:H7 (strain EC4115 / EHEC), Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia coli O9:H4 (strain HS), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Helicobacter acinonychis (strain Sheeba), Helicobacter hepaticus (strain ATCC 51449 / 3B1), Helicobacter pylori (strain ATCC 700392 / 26695), Helicobacter pylori (strain G27), Helicobacter pylori (strain HPAG1), Helicobacter pylori (strain J99 / ATCC 700824), Helicobacter pylori (strain P12), Helicobacter pylori (strain Shi470), Klebsiella pneumoniae (strain 342), Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578), Leuconostoc citreum (strain KM20), Leuconostoc mesenteroides subsp. mesenteroides (strain ATCC 8293 / DSM 20343 / BCRC 11652 / CCM 1803 / JCM 6124 / NCDO 523 / NBRC 100496 / NCIMB 8023 / NCTC 12954 / NRRL B-1118 / 37Y), Listeria innocua serovar 6a (strain ATCC BAA-680 / CLIP 11262), Listeria monocytogenes serotype 4a (strain HCC23), Listeria monocytogenes serotype 4b (strain CLIP80459), Listeria monocytogenes serotype 4b (strain F2365), Listeria monocytogenes serovar 1/2a (strain ATCC BAA-679 / EGD-e), Listeria welshimeri serovar 6b (strain ATCC 35897 / DSM 20650 / CCUG 15529 / CIP 8149 / NCTC 11857 / SLCC 5334 / V8), Parabacteroides distasonis (strain ATCC 8503 / DSM 20701 / CIP 104284 / JCM 5825 / NCTC 11152), Pediococcus pentosaceus (strain ATCC 25745 / CCUG 21536 / LMG 10740 / 183-1w), Porphyromonas gingivalis (strain ATCC 33277 / DSM 20709 / CIP 103683 / JCM 12257 / NCTC 11834 / 2561), Porphyromonas gingivalis (strain ATCC BAA-308 / W83), Proteus mirabilis (strain HI4320), Streptococcus agalactiae serotype III (strain NEM316), Streptococcus agalactiae serotype Ia (strain ATCC 27591 / A909 / CDC SS700), Streptococcus agalactiae serotype V (strain ATCC BAA-611 / 2603 V/R), Streptococcus mutans serotype c (strain ATCC 700610 / UA159), Streptococcus pneumoniae (strain 70585), Streptococcus pneumoniae (strain ATCC 700669 / Spain 23F-1), Streptococcus pneumoniae (strain ATCC BAA-255 / R6), Streptococcus pneumoniae (strain CGSP14), Streptococcus pneumoniae (strain Hungary19A-6), Streptococcus pneumoniae (strain JJA), Streptococcus pneumoniae (strain P1031), Streptococcus pneumoniae (strain Taiwan19F-14), Streptococcus pneumoniae serotype 19F (strain G54), Streptococcus pneumoniae serotype 2 (strain D39 / NCTC 7466), Streptococcus pneumoniae serotype 4 (strain ATCC BAA-334 / TIGR4), Streptococcus thermophilus (strain ATCC BAA-491 / LMD-9)</t>
-  </si>
-  <si>
     <t>Tyrosine decarboxylase</t>
   </si>
   <si>
@@ -4520,9 +4307,6 @@
     <t>Enterococcus faecalis (strain ATCC 700802 / V583), Enterococcus faecalis (strain EnGen0310 / MMH594), Enterococcus faecalis (strain TX4000 / JH2-2), Enterococcus faecium</t>
   </si>
   <si>
-    <t>Clostridium botulinum (strain ATCC 19397 / Type A), Clostridium botulinum (strain Langeland / NCTC 10281 / Type F), Clostridium pasteurianum, Enterobacter sp. (strain 638), Enterococcus faecalis (strain ATCC 700802 / V583), Escherichia coli (strain 55989 / EAEC), Escherichia coli (strain ATCC 8739 / DSM 1576 / NBRC 3972 / NCIMB 8545 / WDCM 00012 / Crooks), Escherichia coli (strain K12 / DH10B), Escherichia coli (strain K12 / MC4100 / BW2952), Escherichia coli (strain K12), Escherichia coli (strain SE11), Escherichia coli (strain SMS-3-5 / SECEC), Escherichia coli O127:H6 (strain E2348/69 / EPEC), Escherichia coli O157:H7, Escherichia coli O17:K52:H18 (strain UMN026 / ExPEC), Escherichia coli O1:K1 / APEC, Escherichia coli O45:K1 (strain S88 / ExPEC), Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC), Escherichia coli O6:K15:H31 (strain 536 / UPEC), Escherichia coli O7:K1 (strain IAI39 / ExPEC), Escherichia coli O8 (strain IAI1), Escherichia coli O81 (strain ED1a), Escherichia fergusonii (strain ATCC 35469 / DSM 13698 / CCUG 18766 / IAM 14443 / JCM 21226 / LMG 7866 / NBRC 102419 / NCTC 12128 / CDC 0568-73), Helicobacter pylori (strain ATCC 700392 / 26695), Helicobacter pylori (strain J99 / ATCC 700824), Klebsiella pneumoniae (strain 342), Klebsiella pneumoniae subsp. pneumoniae (strain ATCC 700721 / MGH 78578), Lactobacillus acidophilus (strain ATCC 700396 / NCK56 / N2 / NCFM), Lactobacillus delbrueckii subsp. bulgaricus (strain ATCC 11842 / DSM 20081 / BCRC 10696 / JCM 1002 / NBRC 13953 / NCIMB 11778 / NCTC 12712 / WDCM 00102 / Lb 14), Lactobacillus delbrueckii subsp. bulgaricus (strain ATCC BAA-365 / Lb-18), Lactobacillus gasseri (strain ATCC 33323 / DSM 20243 / BCRC 14619 / CIP 102991 / JCM 1131 / KCTC 3163 / NCIMB 11718 / NCTC 13722 / AM63), Lactobacillus helveticus (strain DPC 4571), Lactobacillus johnsonii (strain CNCM I-12250 / La1 / NCC 533), Leuconostoc citreum (strain KM20), Leuconostoc mesenteroides subsp. mesenteroides (strain ATCC 8293 / DSM 20343 / BCRC 11652 / CCM 1803 / JCM 6124 / NCDO 523 / NBRC 100496 / NCIMB 8023 / NCTC 12954 / NRRL B-1118 / 37Y), Listeria innocua serovar 6a (strain ATCC BAA-680 / CLIP 11262), Listeria monocytogenes serotype 4b (strain F2365), Listeria monocytogenes serovar 1/2a (strain ATCC BAA-679 / EGD-e), Listeria welshimeri serovar 6b (strain ATCC 35897 / DSM 20650 / CCUG 15529 / CIP 8149 / NCTC 11857 / SLCC 5334 / V8), Pediococcus pentosaceus (strain ATCC 25745 / CCUG 21536 / LMG 10740 / 183-1w), Proteus mirabilis (strain HI4320), Streptococcus agalactiae serotype III (strain NEM316), Streptococcus agalactiae serotype Ia (strain ATCC 27591 / A909 / CDC SS700), Streptococcus agalactiae serotype V (strain ATCC BAA-611 / 2603 V/R), Streptococcus equi subsp. zooepidemicus (strain MGCS10565), Streptococcus gordonii (strain Challis / ATCC 35105 / BCRC 15272 / CH1 / DL1 / V288), Streptococcus mutans serotype c (strain ATCC 700610 / UA159), Streptococcus pneumoniae (strain ATCC BAA-255 / R6), Streptococcus pneumoniae (strain CGSP14), Streptococcus pneumoniae (strain Hungary19A-6), Streptococcus pneumoniae serotype 19F (strain G54), Streptococcus pneumoniae serotype 2 (strain D39 / NCTC 7466), Streptococcus pneumoniae serotype 4 (strain ATCC BAA-334 / TIGR4), Streptococcus pyogenes serotype M1, Streptococcus pyogenes serotype M12 (strain MGAS2096), Streptococcus pyogenes serotype M12 (strain MGAS9429), Streptococcus pyogenes serotype M18 (strain MGAS8232), Streptococcus pyogenes serotype M2 (strain MGAS10270), Streptococcus pyogenes serotype M28 (strain MGAS6180), Streptococcus pyogenes serotype M3 (strain ATCC BAA-595 / MGAS315), Streptococcus pyogenes serotype M3 (strain SSI-1), Streptococcus pyogenes serotype M4 (strain MGAS10750), Streptococcus pyogenes serotype M49 (strain NZ131), Streptococcus pyogenes serotype M5 (strain Manfredo), Streptococcus pyogenes serotype M6 (strain ATCC BAA-946 / MGAS10394), Streptococcus sanguinis (strain SK36), Streptococcus suis (strain 05ZYH33), Streptococcus suis (strain 98HAH33), Streptococcus thermophilus (strain ATCC BAA-250 / LMG 18311), Streptococcus thermophilus (strain ATCC BAA-491 / LMD-9), Streptococcus thermophilus (strain CNRZ 1066)</t>
-  </si>
-  <si>
     <t>Tyrosine-specific transport protein</t>
   </si>
   <si>
@@ -4532,7 +4316,160 @@
     <t>Citrobacter koseri, Escherichia albertii (strain TW07627), Escherichia coli, Escherichia coli O145:H28 (strain RM12581), Helicobacter bizzozeronii (strain CIII-1), Helicobacter muridarum, Klebsiella africana, Klebsiella pneumoniae, Klebsiella pneumoniae 30684/NJST258_2, Klebsiella pneumoniae IS43, Klebsiella variicola</t>
   </si>
   <si>
-    <t>Caloramator australicus RC3, Enterobacter cloacae complex sp. 743-2DZ2F-22B, Enterobacter sp. DC4, Providencia alcalifaciens, Providencia alcalifaciens 205/92, Providencia alcalifaciens DSM 30120, Providencia rustigianii, Providencia rustigianii DSM 4541, Providencia sp. wls1938, Tsukamurella pulmonis, Tsukamurella tyrosinosolvens</t>
+    <t>3-alpha-hydroxysteroid dehydrogenase</t>
+  </si>
+  <si>
+    <t>Steroids metabolism</t>
+  </si>
+  <si>
+    <t>3-alpha-hydroxysteroid_dehydrogenase</t>
+  </si>
+  <si>
+    <t>3-beta-hydroxysteroid dehydrogenase</t>
+  </si>
+  <si>
+    <t>3-beta-hydroxysteroid_dehydrogenase</t>
+  </si>
+  <si>
+    <t>7-alpha-dehydroxylase</t>
+  </si>
+  <si>
+    <t>agmatinase</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>beta-glucosidase</t>
+  </si>
+  <si>
+    <t>Starch and sucrose metabolism</t>
+  </si>
+  <si>
+    <t>beta-glucuronidase UidA</t>
+  </si>
+  <si>
+    <t>beta-glucuronidase_UidA</t>
+  </si>
+  <si>
+    <t>bile salt hydrolase BSH</t>
+  </si>
+  <si>
+    <t>Bile acid metabolism</t>
+  </si>
+  <si>
+    <t>bile_salt_hydrolase_BSH</t>
+  </si>
+  <si>
+    <t>biotin synthase</t>
+  </si>
+  <si>
+    <t>Biotin metabolism</t>
+  </si>
+  <si>
+    <t>biotin_synthase</t>
+  </si>
+  <si>
+    <t>butyryl-CoA:acetate CoA-transferase</t>
+  </si>
+  <si>
+    <t>butyryl-CoA_acetate_CoA-transferase</t>
+  </si>
+  <si>
+    <t>glycine betaine reductase</t>
+  </si>
+  <si>
+    <t>Glycine, serine and threonine metabolism</t>
+  </si>
+  <si>
+    <t>glycine_betaine_reductase</t>
+  </si>
+  <si>
+    <t>indoleacetate decarboxylase</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>indoleacetate_decarboxylase</t>
+  </si>
+  <si>
+    <t>indolepyruvate decarboxylase</t>
+  </si>
+  <si>
+    <t>indolepyruvate_decarboxylase</t>
+  </si>
+  <si>
+    <t>methylmalonyl-CoA mutase</t>
+  </si>
+  <si>
+    <t>methylmalonyl-CoA_mutase</t>
+  </si>
+  <si>
+    <t>N-acetylglucosaminidase</t>
+  </si>
+  <si>
+    <t>Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
+    <t>nitroreductases</t>
+  </si>
+  <si>
+    <t>Xenobiotics biodegradation</t>
+  </si>
+  <si>
+    <t>ornithine decarboxylase ODC</t>
+  </si>
+  <si>
+    <t>ornithine_decarboxylase_ODC</t>
+  </si>
+  <si>
+    <t>peptidoglycan hydrolases</t>
+  </si>
+  <si>
+    <t>Peptidoglycan biosynthesis</t>
+  </si>
+  <si>
+    <t>peptidoglycan_hydrolases</t>
+  </si>
+  <si>
+    <t>peroxiredoxin</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism</t>
+  </si>
+  <si>
+    <t>propionate CoA-transferase</t>
+  </si>
+  <si>
+    <t>propionate_CoA-transferase</t>
+  </si>
+  <si>
+    <t>putrescine aminotransferase</t>
+  </si>
+  <si>
+    <t>putrescine_aminotransferase</t>
+  </si>
+  <si>
+    <t>riboflavin synthase</t>
+  </si>
+  <si>
+    <t>Riboflavin metabolism</t>
+  </si>
+  <si>
+    <t>riboflavin_synthase</t>
+  </si>
+  <si>
+    <t>thioredoxin reductase</t>
+  </si>
+  <si>
+    <t>thioredoxin_reductase</t>
+  </si>
+  <si>
+    <t>tryptophan 2-monooxygenase</t>
+  </si>
+  <si>
+    <t>tryptophan_2-monooxygenase</t>
   </si>
 </sst>
 </file>
@@ -7113,13 +7050,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="48.0777777777778" customWidth="1"/>
     <col min="2" max="2" width="33.5777777777778" customWidth="1"/>
@@ -7152,1173 +7089,1104 @@
         <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" t="s">
         <v>282</v>
-      </c>
-      <c r="B4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
         <v>285</v>
       </c>
-      <c r="B5" t="s">
-        <v>283</v>
-      </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
         <v>297</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>299</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="B11" t="s">
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C15" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:3">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C16" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B17" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C17" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>317</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
+      </c>
+      <c r="B18" t="s">
+        <v>322</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>319</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>325</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B20" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C20" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B21" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C21" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B22" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C22" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B23" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C23" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C24" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" ht="40" customHeight="1" spans="1:3">
       <c r="A25" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B25" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C25" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B26" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C26" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B27" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C27" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B28" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C28" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C29" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B30" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C30" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B31" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C31" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B32" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C32" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B33" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C33" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B34" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C34" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="C35" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B36" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C36" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B37" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C37" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B38" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C38" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s">
-        <v>377</v>
+        <v>281</v>
       </c>
       <c r="C39" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B40" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C40" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C41" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B42" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C42" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="C43" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="C44" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="C45" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B46" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C46" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="C47" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>398</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
+      </c>
+      <c r="B48" t="s">
+        <v>405</v>
       </c>
       <c r="C48" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C49" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C50" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B51" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C51" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B52" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="C52" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B53" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C53" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C54" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B55" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C55" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B56" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C56" t="s">
-        <v>423</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B57" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C57" t="s">
-        <v>426</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B58" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="C58" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s">
-        <v>331</v>
+        <v>433</v>
       </c>
       <c r="C59" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C60" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C61" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C62" t="s">
-        <v>439</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B63" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="C63" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>443</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
+      </c>
+      <c r="B64" t="s">
+        <v>446</v>
       </c>
       <c r="C64" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C65" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C66" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B67" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C67" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>452</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
+      </c>
+      <c r="B68" t="s">
+        <v>457</v>
       </c>
       <c r="C68" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B69" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C69" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>457</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>300</v>
+        <v>462</v>
+      </c>
+      <c r="B70" t="s">
+        <v>463</v>
       </c>
       <c r="C70" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>459</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
+      </c>
+      <c r="B71" t="s">
+        <v>325</v>
       </c>
       <c r="C71" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>462</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
+      </c>
+      <c r="B72" t="s">
+        <v>468</v>
       </c>
       <c r="C72" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B73" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C73" t="s">
-        <v>340</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B74" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C74" t="s">
-        <v>284</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B75" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C75" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B76" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C76" t="s">
-        <v>472</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B77" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C77" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B78" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C78" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B79" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B80" t="s">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="C80" t="s">
-        <v>482</v>
-      </c>
-      <c r="D80" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B81" t="s">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="C81" t="s">
-        <v>485</v>
-      </c>
-      <c r="D81" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B82" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C82" t="s">
-        <v>489</v>
-      </c>
-      <c r="D82" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>300</v>
+        <v>495</v>
       </c>
       <c r="C83" t="s">
-        <v>492</v>
-      </c>
-      <c r="D83" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>494</v>
-      </c>
-      <c r="B84" t="s">
-        <v>495</v>
+        <v>496</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="C84" t="s">
         <v>496</v>
       </c>
-      <c r="D84" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>498</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C85" t="s">
         <v>499</v>
       </c>
-      <c r="C85" t="s">
-        <v>284</v>
-      </c>
-      <c r="D85" t="s">
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
         <v>501</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>502</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
         <v>503</v>
       </c>
-      <c r="D86" t="s">
+      <c r="B87" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+      <c r="C87" t="s">
         <v>505</v>
       </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>506</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>316</v>
+      </c>
+      <c r="C88" t="s">
         <v>507</v>
       </c>
-      <c r="D87" t="s">
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
+      <c r="B89" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C89" t="s">
         <v>510</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
         <v>511</v>
       </c>
-      <c r="D88" t="s">
+      <c r="B90" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
+      <c r="C90" t="s">
         <v>513</v>
       </c>
-      <c r="B89" t="s">
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>514</v>
       </c>
-      <c r="C89" t="s">
+      <c r="B91" t="s">
+        <v>512</v>
+      </c>
+      <c r="C91" t="s">
         <v>515</v>
       </c>
-      <c r="D89" t="s">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
+      <c r="B92" t="s">
+        <v>316</v>
+      </c>
+      <c r="C92" t="s">
         <v>517</v>
       </c>
-      <c r="B90" t="s">
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
         <v>518</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B93" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D90" t="s">
+      <c r="C93" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
+      <c r="B94" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C94" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
         <v>522</v>
       </c>
-      <c r="C91" t="s">
+      <c r="B95" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C95" t="s">
         <v>523</v>
       </c>
-      <c r="D91" t="s">
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
+      <c r="B96" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B92" t="s">
-        <v>342</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="C96" t="s">
         <v>526</v>
       </c>
-      <c r="D92" t="s">
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
+      <c r="B97" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="C97" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
         <v>529</v>
       </c>
-      <c r="D93" t="s">
+      <c r="B98" t="s">
+        <v>391</v>
+      </c>
+      <c r="C98" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>531</v>
       </c>
-      <c r="B94" t="s">
-        <v>408</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B99" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C99" t="s">
         <v>532</v>
       </c>
-      <c r="D94" t="s">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+      <c r="B100" t="s">
         <v>534</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C100" t="s">
         <v>535</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>536</v>
       </c>
-      <c r="D95" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
+      <c r="B101" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C101" t="s">
         <v>537</v>
       </c>
-      <c r="B96" t="s">
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>538</v>
       </c>
-      <c r="C96" t="s">
+      <c r="B102" t="s">
+        <v>512</v>
+      </c>
+      <c r="C102" t="s">
         <v>539</v>
-      </c>
-      <c r="D96" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>541</v>
-      </c>
-      <c r="B97" t="s">
-        <v>538</v>
-      </c>
-      <c r="C97" t="s">
-        <v>542</v>
-      </c>
-      <c r="D97" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>544</v>
-      </c>
-      <c r="B98" t="s">
-        <v>545</v>
-      </c>
-      <c r="C98" t="s">
-        <v>546</v>
-      </c>
-      <c r="D98" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>547</v>
-      </c>
-      <c r="B99" t="s">
-        <v>535</v>
-      </c>
-      <c r="C99" t="s">
-        <v>284</v>
-      </c>
-      <c r="D99" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>549</v>
-      </c>
-      <c r="B100" t="s">
-        <v>550</v>
-      </c>
-      <c r="C100" t="s">
-        <v>551</v>
-      </c>
-      <c r="D100" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>553</v>
-      </c>
-      <c r="B101" t="s">
-        <v>554</v>
-      </c>
-      <c r="C101" t="s">
-        <v>555</v>
-      </c>
-      <c r="D101" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>557</v>
-      </c>
-      <c r="B102" t="s">
-        <v>558</v>
-      </c>
-      <c r="C102" t="s">
-        <v>559</v>
-      </c>
-      <c r="D102" t="s">
-        <v>560</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:C102">
-    <sortCondition ref="A58"/>
+    <sortCondition ref="C80"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
